--- a/Documents/ExcelTableToMarkDownSample.xlsx
+++ b/Documents/ExcelTableToMarkDownSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TSED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TSED\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BB1292-8872-46DB-BCE2-FB947242B0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB51C533-25E2-4350-B10D-6FEE8A7EB7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="9" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
   </bookViews>
   <sheets>
     <sheet name="Abreviaturas" sheetId="9" r:id="rId1"/>
@@ -23,7 +23,8 @@
     <sheet name="2_PotencialTransporte" sheetId="8" r:id="rId8"/>
     <sheet name="2_Modelo" sheetId="11" r:id="rId9"/>
     <sheet name="2_FuncionesTransporte" sheetId="12" r:id="rId10"/>
-    <sheet name="RefsFile" sheetId="2" r:id="rId11"/>
+    <sheet name="3_Calibracion" sheetId="13" r:id="rId11"/>
+    <sheet name="RefsFile" sheetId="2" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc107986980" localSheetId="2">'0_Section01'!$B$9</definedName>
@@ -34,8 +35,9 @@
     <definedName name="_Toc107986980" localSheetId="9">'2_FuncionesTransporte'!$B$9</definedName>
     <definedName name="_Toc107986980" localSheetId="8">'2_Modelo'!$B$9</definedName>
     <definedName name="_Toc107986980" localSheetId="7">'2_PotencialTransporte'!$B$9</definedName>
+    <definedName name="_Toc107986980" localSheetId="10">'3_Calibracion'!$B$9</definedName>
     <definedName name="_Toc107986980" localSheetId="0">Abreviaturas!$B$9</definedName>
-    <definedName name="_Toc107986980" localSheetId="10">RefsFile!$B$9</definedName>
+    <definedName name="_Toc107986980" localSheetId="11">RefsFile!$B$9</definedName>
     <definedName name="_Toc107986980" localSheetId="1">Sample!$B$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -57,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="244">
   <si>
     <t>Creación de tablas en formato .md</t>
   </si>
@@ -772,6 +774,24 @@
   <si>
     <t>Diseñado para ríos bien gradados que contienen tanto arena como grava. Los lechos solían estar acorazados, con un contenido de arena mucho menor en la superficie que en el subsuelo. Por lo tanto, los usuarios deben elegir algoritmos de capas activas y las granulometrías deben reflejar las propiedades de la superficie del lecho. Se recomienda utilizar siempre esta función con el método de mezcla del lecho de la capa activa (Active Layer). Para calibrar la ecuación de Wilcock &amp; Crowe (2003) ajuste el factor de escala de movilidad (mobility scaling factor).</t>
   </si>
+  <si>
+    <t>Combinación utilizada</t>
+  </si>
+  <si>
+    <t>Invert Elevation RMSE</t>
+  </si>
+  <si>
+    <t>Laursen-Copeland/Copeland/Rubey</t>
+  </si>
+  <si>
+    <t>Ackers-White/Thomas/Report12</t>
+  </si>
+  <si>
+    <t>Ackers-White(Critical Mobility Scaling Factor =1.2)/Thomas/Report12</t>
+  </si>
+  <si>
+    <t>Long. Cum Vol Change Total RMSE</t>
+  </si>
 </sst>
 </file>
 
@@ -3278,7 +3298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513C3029-5A48-4725-9EBA-B6B2EB2DE333}">
   <dimension ref="B2:I103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
@@ -5318,6 +5338,1982 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C10179-C9B6-441D-A8D4-C03395B2D1AA}">
+  <dimension ref="B2:I102"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
+    <col min="2" max="5" width="36.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.77734375" style="1" customWidth="1"/>
+    <col min="7" max="9" width="74.109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," |")</f>
+        <v>| Combinación utilizada | Invert Elevation RMSE |</v>
+      </c>
+      <c r="H3" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," |")</f>
+        <v>| Combinación utilizada | Invert Elevation RMSE | Long. Cum Vol Change Total RMSE |</v>
+      </c>
+      <c r="I3" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |")</f>
+        <v>| Combinación utilizada | Invert Elevation RMSE | Long. Cum Vol Change Total RMSE | Tamiz |</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8" t="str">
+        <f>_xlfn.CONCAT("|",B4,"|",C4,"|")</f>
+        <v>|---|---|</v>
+      </c>
+      <c r="H4" s="8" t="str">
+        <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|")</f>
+        <v>|---|---|---|</v>
+      </c>
+      <c r="I4" s="8" t="str">
+        <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|",E4,"|")</f>
+        <v>|---|---|---|---|</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="D5" s="5">
+        <v>31649.637999999999</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
+        <v>| Laursen-Copeland/Copeland/Rubey | 0.602 |</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f t="shared" ref="H5:H68" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
+        <v>| Laursen-Copeland/Copeland/Rubey | 0.602 | 31649.638 |</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f t="shared" ref="I5:I68" si="1">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
+        <v>| Laursen-Copeland/Copeland/Rubey | 0.602 | 31649.638 |  |</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="D6" s="5">
+        <v>19238.773000000001</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="str">
+        <f t="shared" ref="G6:G69" si="2">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
+        <v>| Ackers-White/Thomas/Report12 | 0.164 |</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Ackers-White/Thomas/Report12 | 0.164 | 19238.773 |</v>
+      </c>
+      <c r="I6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Ackers-White/Thomas/Report12 | 0.164 | 19238.773 |  |</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.35">
+      <c r="B7" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="D7" s="5">
+        <v>9729.7430000000004</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Ackers-White(Critical Mobility Scaling Factor =1.2)/Thomas/Report12 | 0.15 |</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Ackers-White(Critical Mobility Scaling Factor =1.2)/Thomas/Report12 | 0.15 | 9729.743 |</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Ackers-White(Critical Mobility Scaling Factor =1.2)/Thomas/Report12 | 0.15 | 9729.743 |  |</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="45" x14ac:dyDescent="0.35">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I28" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I29" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I30" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I31" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I32" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I33" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I34" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I35" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I36" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I37" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H38" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I38" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H39" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I39" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H40" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I40" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H41" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I41" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H42" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I42" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H43" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I43" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H44" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I44" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H45" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I45" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H46" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I46" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H47" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I47" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H48" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I48" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H49" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I49" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H50" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I50" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H51" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I51" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H52" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I52" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H53" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I53" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H54" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I54" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H55" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I55" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H56" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I56" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H57" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I57" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H58" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I58" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H59" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I59" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H60" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I60" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H61" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I61" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H62" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I62" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H63" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I63" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H64" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I64" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H65" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I65" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H66" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I66" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H67" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I67" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H68" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I68" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H69" s="5" t="str">
+        <f t="shared" ref="H69:H102" si="3">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I69" s="5" t="str">
+        <f t="shared" ref="I69:I102" si="4">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," | ",E69," |")</f>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="5" t="str">
+        <f t="shared" ref="G70:G102" si="5">_xlfn.CONCAT("| ",B70," | ",C70," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="H70" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I70" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H71" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I71" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H72" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I72" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H73" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I73" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H74" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I74" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H75" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I75" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H76" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I76" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H77" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I77" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H78" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I78" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H79" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I79" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H80" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I80" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H81" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I81" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H82" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I82" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H83" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I83" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H84" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I84" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H85" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I85" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H86" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I86" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H87" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I87" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H88" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I88" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H89" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I89" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H90" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I90" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H91" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I91" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H92" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I92" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H93" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I93" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H94" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I94" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H95" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I95" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H96" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I96" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H97" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I97" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H98" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I98" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H99" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I99" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H100" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I100" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H101" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I101" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H102" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I102" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDB6E6C-1D05-499A-989F-C261220A1AD3}">
   <sheetPr codeName="Hoja5"/>
   <dimension ref="B2:I103"/>
